--- a/Homework_2/hw2_cnn_skeleton_code/Data.xlsx
+++ b/Homework_2/hw2_cnn_skeleton_code/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa32d1f18b061fe1/Documentos/4 Ano 1 Semestre/AP/Labs/GitHub_DL/DL/Homework_2/hw2_cnn_skeleton_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104856A1985D4C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5843395-0719-4853-A016-68CD488B8327}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC104856A1985D4C5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B114BB-DDCB-4168-81FA-E1B0B4287C0B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1236" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,6 +98,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>845</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22E3579-5C4A-DDCA-BFF4-583333248045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8161020" y="1280160"/>
+          <a:ext cx="9754445" cy="3642676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +419,7 @@
   <dimension ref="D6:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,5 +490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>